--- a/Documentation/Project Proposal/Timetable.xlsx
+++ b/Documentation/Project Proposal/Timetable.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rober\Documents\GitHub\WordZoo\Documentation\Project Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Nottingham University</t>
   </si>
@@ -150,13 +151,28 @@
   </si>
   <si>
     <t>Tasks:</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>% Working at Expected Standard</t>
+  </si>
+  <si>
+    <t>% Working at Greater Depth</t>
+  </si>
+  <si>
+    <t>% Not Reaching Expected Standard</t>
+  </si>
+  <si>
+    <t>Writing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +198,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -345,47 +390,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -403,6 +449,1699 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Century Schoolbook" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" b="1">
+                <a:latin typeface="Century Schoolbook" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Reading</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Century Schoolbook" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>% Working at Expected Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>% Working at Greater Depth</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>% Not Reaching Expected Standard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA65-4CEF-8F73-974E8F7B3BBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Century Schoolbook" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Century Schoolbook" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" b="1">
+                <a:latin typeface="Century Schoolbook" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Writing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Century Schoolbook" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>% Working at Expected Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>% Working at Greater Depth</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>% Not Reaching Expected Standard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1944-4617-86FD-322FC1A1F020}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Century Schoolbook" panose="02040604050505020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121444</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>126205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B623DD05-7610-48DE-9F73-598B6E50739D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>445293</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>159542</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BB295E-0C12-4EDF-854A-8EA305E7AD85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,113 +2440,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD25" sqref="A1:AD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="30" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="30" width="3.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:34" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <v>43027</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="3">
         <v>43024</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <v>43031</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>43038</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>43045</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="3">
         <v>43052</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="3">
         <v>43059</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="3">
         <v>43066</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="3">
         <v>43073</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="3">
         <v>43080</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="3">
         <v>43087</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="3">
         <v>43094</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="3">
         <v>43101</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="3">
         <v>43108</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="3">
         <v>43115</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="3">
         <v>43122</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="3">
         <v>43129</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="3">
         <v>43136</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="3">
         <v>43143</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="3">
         <v>43150</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="3">
         <v>43157</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="3">
         <v>43164</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="3">
         <v>43171</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="3">
         <v>43178</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="3">
         <v>43185</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="3">
         <v>43192</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="3">
         <v>43199</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="3">
         <v>43206</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="3">
         <v>43213</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -826,12 +2566,12 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AH2" t="s">
+      <c r="AH2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -839,349 +2579,349 @@
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="U3" s="4"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="U3" s="9"/>
       <c r="Z3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AH3" t="s">
+      <c r="AH3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="AH4" t="s">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="AH4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="AH10" s="2" t="s">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="AH10" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="AH11" s="2"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="AH11" s="10"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="AH16" s="2" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="AH16" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="25"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="AH17" s="2"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="AH17" s="10"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="J18" s="25"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="AH21" s="2" t="s">
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="AH21" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
       <c r="V22" s="29"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
       <c r="Y22" s="29"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AH23" t="s">
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AH23" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AH24" s="2" t="s">
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AH24" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="AH26" t="s">
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="AH26" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="AH27" t="s">
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="AH27" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="AH28" t="s">
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="AH28" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="AH29" t="s">
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="AH29" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B30" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1195,4 +2935,84 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7455278-8BD6-4138-A848-D15AD8C1C1C0}">
+  <dimension ref="A2:B10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="31.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <f>68-16</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <f>100-B8-B9</f>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Documentation/Project Proposal/Timetable.xlsx
+++ b/Documentation/Project Proposal/Timetable.xlsx
@@ -400,12 +400,6 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
@@ -432,6 +426,12 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -544,6 +544,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0683-4B78-8823-7223D83FCA27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -559,6 +564,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0683-4B78-8823-7223D83FCA27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -574,6 +584,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0683-4B78-8823-7223D83FCA27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -796,6 +811,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3CF6-4C53-9D28-E03FCD621106}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -811,6 +831,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3CF6-4C53-9D28-E03FCD621106}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -826,6 +851,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3CF6-4C53-9D28-E03FCD621106}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2071,6 +2101,76 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>790560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>871920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57465</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE4A8A3-B360-45D0-A1DE-C7E8E52A79C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="790560" y="3409920"/>
+            <a:ext cx="81360" cy="219420"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE4A8A3-B360-45D0-A1DE-C7E8E52A79C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="786240" y="3405611"/>
+              <a:ext cx="90000" cy="228039"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>121444</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -2142,6 +2242,35 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-10-19T11:02:42.608"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">53 106 7680,'-26'0'2880,"26"-13"-1536,-14 13-1152,1 0 704,13-13-544,0 13-128,0 0-192,0-14-128,13 1 64,1 0 64,-1 0 128,0-1-128,0 14-32,14-13-64,-14 13 0,0 13 64,1-13 0,-1 27 64,-13-1 32,13 1-32,-13-1 32,-13 1-128,13 12 0,0 1 32,-13 0 64,13 0-32,-14-1 64,1-12-64,13-1 64,-13 1 64,13-14 128,0 0-64,0-13-64,0 0-64,0 0-96,0-26 32,0 26-192,13-13 32,-13-1-928,13 1-416,1 13-800,-14 0-256,13 0-224</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="305.8142">132 610 5504,'0'-14'2112,"0"14"-1152,0-13-288,0 13 704,0-13-320,14 0-64,-14-1-640,13 1-224,-13-14-96,13 1-192,0 13-32,0-1 288,1 1 224,-14 13 64,13 0 32,-13 13-32,0 1 0,-13-1-192,13 13-128,-14-12 32,1-1 64,13 0-2240,-13-39-3104</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2443,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD25" sqref="A1:AD25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2550,22 +2679,22 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="Y2" s="5" t="s">
+      <c r="Q2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
       <c r="AH2" s="4" t="s">
         <v>4</v>
       </c>
@@ -2574,32 +2703,32 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="U3" s="9"/>
-      <c r="Z3" s="5" t="s">
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="U3" s="7"/>
+      <c r="Z3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
       <c r="AH3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
       <c r="AH4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2608,70 +2737,70 @@
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="AH10" s="10" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="AH10" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2679,75 +2808,75 @@
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="AH11" s="10"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="AH11" s="8"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="AH16" s="10" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="AH16" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2755,66 +2884,66 @@
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="AH17" s="10"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="AH17" s="8"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="J18" s="23"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="AH21" s="10" t="s">
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="AH21" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2822,29 +2951,29 @@
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
       <c r="AH23" s="4" t="s">
         <v>14</v>
       </c>
@@ -2853,14 +2982,14 @@
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AH24" s="10" t="s">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AH24" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2868,30 +2997,30 @@
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
       <c r="AH26" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
       <c r="AH27" s="4" t="s">
         <v>17</v>
       </c>
@@ -2900,10 +3029,10 @@
       <c r="B28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
       <c r="AH28" s="4" t="s">
         <v>18</v>
       </c>
@@ -2912,10 +3041,10 @@
       <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
       <c r="AH29" s="4" t="s">
         <v>19</v>
       </c>
@@ -2934,6 +3063,8 @@
     <mergeCell ref="Z3:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Documentation/Project Proposal/Timetable.xlsx
+++ b/Documentation/Project Proposal/Timetable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="OriginalPlan" sheetId="1" r:id="rId1"/>
+    <sheet name="ActualWork" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>Nottingham University</t>
   </si>
@@ -166,6 +167,9 @@
   </si>
   <si>
     <t>Writing</t>
+  </si>
+  <si>
+    <t>School  contact</t>
   </si>
 </sst>
 </file>
@@ -232,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +379,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -390,7 +418,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -426,12 +454,21 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2101,76 +2138,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>790560</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>871920</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57465</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="10" name="Ink 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE4A8A3-B360-45D0-A1DE-C7E8E52A79C8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="790560" y="3409920"/>
-            <a:ext cx="81360" cy="219420"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="10" name="Ink 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE4A8A3-B360-45D0-A1DE-C7E8E52A79C8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="786240" y="3405611"/>
-              <a:ext cx="90000" cy="228039"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>121444</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -2242,35 +2209,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2017-10-19T11:02:42.608"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.025" units="cm"/>
-      <inkml:brushProperty name="height" value="0.025" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">53 106 7680,'-26'0'2880,"26"-13"-1536,-14 13-1152,1 0 704,13-13-544,0 13-128,0 0-192,0-14-128,13 1 64,1 0 64,-1 0 128,0-1-128,0 14-32,14-13-64,-14 13 0,0 13 64,1-13 0,-1 27 64,-13-1 32,13 1-32,-13-1 32,-13 1-128,13 12 0,0 1 32,-13 0 64,13 0-32,-14-1 64,1-12-64,13-1 64,-13 1 64,13-14 128,0 0-64,0-13-64,0 0-64,0 0-96,0-26 32,0 26-192,13-13 32,-13-1-928,13 1-416,1 13-800,-14 0-256,13 0-224</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="305.8142">132 610 5504,'0'-14'2112,"0"14"-1152,0-13-288,0 13 704,0-13-320,14 0-64,-14-1-640,13 1-224,-13-14-96,13 1-192,0 13-32,0-1 288,1 1 224,-14 13 64,13 0 32,-13 13-32,0 1 0,-13-1-192,13 13-128,-14-12 32,1-1 64,13 0-2240,-13-39-3104</inkml:trace>
-</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2570,10 +2508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2605,7 +2543,7 @@
       <c r="G1" s="3">
         <v>43052</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="37">
         <v>43059</v>
       </c>
       <c r="I1" s="3">
@@ -2679,22 +2617,22 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32" t="s">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="Y2" s="31" t="s">
+      <c r="Q2" s="35"/>
+      <c r="Y2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
       <c r="AH2" s="4" t="s">
         <v>4</v>
       </c>
@@ -2703,20 +2641,20 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
       <c r="O3" s="5"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="U3" s="7"/>
-      <c r="Z3" s="31" t="s">
+      <c r="Z3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
       <c r="AH3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2745,11 +2683,18 @@
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
+      <c r="A6" s="33" t="s">
+        <v>47</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6"/>
@@ -2784,6 +2729,12 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
@@ -2808,9 +2759,13 @@
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="6"/>
@@ -2824,6 +2779,10 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
@@ -2836,6 +2795,9 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
@@ -2845,37 +2807,82 @@
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
       <c r="AH16" s="8" t="s">
         <v>11</v>
       </c>
@@ -2887,6 +2894,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="22"/>
+      <c r="J17" s="31"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="6"/>
@@ -2897,6 +2905,8 @@
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="23"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -2907,6 +2917,9 @@
       <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
@@ -2922,6 +2935,9 @@
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -3054,6 +3070,9 @@
         <v>39</v>
       </c>
     </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B31" s="33"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="L2:O2"/>
@@ -3064,16 +3083,514 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1A802C-FA4E-40B6-9D35-A2EE4EA57273}">
+  <dimension ref="A1:AH30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="28.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="30" width="3.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.06640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3">
+        <v>43027</v>
+      </c>
+      <c r="C1" s="3">
+        <v>43024</v>
+      </c>
+      <c r="D1" s="3">
+        <v>43031</v>
+      </c>
+      <c r="E1" s="3">
+        <v>43038</v>
+      </c>
+      <c r="F1" s="3">
+        <v>43045</v>
+      </c>
+      <c r="G1" s="3">
+        <v>43052</v>
+      </c>
+      <c r="H1" s="3">
+        <v>43059</v>
+      </c>
+      <c r="I1" s="3">
+        <v>43066</v>
+      </c>
+      <c r="J1" s="3">
+        <v>43073</v>
+      </c>
+      <c r="K1" s="3">
+        <v>43080</v>
+      </c>
+      <c r="L1" s="3">
+        <v>43087</v>
+      </c>
+      <c r="M1" s="3">
+        <v>43094</v>
+      </c>
+      <c r="N1" s="3">
+        <v>43101</v>
+      </c>
+      <c r="O1" s="3">
+        <v>43108</v>
+      </c>
+      <c r="P1" s="3">
+        <v>43115</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>43122</v>
+      </c>
+      <c r="R1" s="3">
+        <v>43129</v>
+      </c>
+      <c r="S1" s="3">
+        <v>43136</v>
+      </c>
+      <c r="T1" s="3">
+        <v>43143</v>
+      </c>
+      <c r="U1" s="3">
+        <v>43150</v>
+      </c>
+      <c r="V1" s="3">
+        <v>43157</v>
+      </c>
+      <c r="W1" s="3">
+        <v>43164</v>
+      </c>
+      <c r="X1" s="3">
+        <v>43171</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>43178</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>43185</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>43192</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>43199</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>43206</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>43213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="35"/>
+      <c r="Y2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AH2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="U3" s="7"/>
+      <c r="Z3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AH3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="AH4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="AH10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="AH11" s="8"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="AH16" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="AH17" s="8"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="AH21" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AH23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AH24" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="AH26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="AH27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="AH28" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="AH29" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="Z3:AB3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7455278-8BD6-4138-A848-D15AD8C1C1C0}">
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
